--- a/DateBase/orders/Dang Nguyen48_2026-1-14.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-1-14.xlsx
@@ -829,6 +829,9 @@
       <c r="G2" t="str">
         <v>05105104030301571055510131010121015404010202051051054101045101510</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
